--- a/Level 5.xlsx
+++ b/Level 5.xlsx
@@ -8363,9 +8363,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -8408,16 +8408,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8430,17 +8431,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8449,14 +8456,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8477,8 +8476,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8486,7 +8493,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8499,8 +8513,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8515,10 +8530,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8536,24 +8551,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -8609,7 +8609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8621,7 +8621,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8633,25 +8633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8663,13 +8651,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8687,7 +8687,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8699,7 +8711,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8711,13 +8747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8729,13 +8759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8747,43 +8777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8815,54 +8815,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -8880,6 +8832,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8909,154 +8870,193 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9423,8 +9423,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F6389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" outlineLevelCol="5"/>
@@ -9496,9 +9496,9 @@
       </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" hidden="1" spans="1:5">
       <c r="A5" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -9526,9 +9526,9 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" hidden="1" spans="1:5">
       <c r="A7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>19</v>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>25</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>31</v>
@@ -9676,9 +9676,9 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" hidden="1" spans="1:5">
       <c r="A17" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>49</v>
@@ -9721,9 +9721,9 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" hidden="1" spans="1:5">
       <c r="A20" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>58</v>
@@ -9841,9 +9841,9 @@
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" hidden="1" spans="1:5">
+    <row r="28" spans="1:5">
       <c r="A28" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>82</v>
@@ -9856,9 +9856,9 @@
       </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" hidden="1" spans="1:5">
+    <row r="29" spans="1:5">
       <c r="A29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>85</v>
@@ -9871,9 +9871,9 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" hidden="1" spans="1:5">
+    <row r="30" spans="1:5">
       <c r="A30" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>88</v>
@@ -9918,7 +9918,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>97</v>
@@ -9931,9 +9931,9 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" hidden="1" spans="1:5">
+    <row r="34" spans="1:5">
       <c r="A34" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>100</v>
@@ -9946,9 +9946,9 @@
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" hidden="1" spans="1:5">
+    <row r="35" spans="1:5">
       <c r="A35" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>103</v>
@@ -9961,9 +9961,9 @@
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" hidden="1" spans="1:5">
       <c r="A36" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>106</v>
@@ -9976,9 +9976,9 @@
       </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" hidden="1" spans="1:5">
       <c r="A37" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>109</v>
@@ -9991,9 +9991,9 @@
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" hidden="1" spans="1:5">
+    <row r="38" spans="1:5">
       <c r="A38" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>112</v>
@@ -10036,9 +10036,9 @@
       </c>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" hidden="1" spans="1:5">
+    <row r="41" spans="1:5">
       <c r="A41" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>121</v>
@@ -10066,9 +10066,9 @@
       </c>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" hidden="1" spans="1:5">
+    <row r="43" spans="1:5">
       <c r="A43" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>127</v>
@@ -10081,9 +10081,9 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" hidden="1" spans="1:5">
+    <row r="44" spans="1:5">
       <c r="A44" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>130</v>
@@ -10096,9 +10096,9 @@
       </c>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" hidden="1" spans="1:5">
       <c r="A45" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>133</v>
@@ -10126,9 +10126,9 @@
       </c>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" hidden="1" spans="1:5">
+    <row r="47" spans="1:5">
       <c r="A47" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>139</v>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>148</v>
@@ -10201,9 +10201,9 @@
       </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" hidden="1" spans="1:5">
+    <row r="52" spans="1:5">
       <c r="A52" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>154</v>
@@ -10216,7 +10216,10 @@
       </c>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" hidden="1" spans="2:5">
+    <row r="53" hidden="1" spans="1:5">
+      <c r="A53" s="6">
+        <v>0</v>
+      </c>
       <c r="B53" s="6" t="s">
         <v>157</v>
       </c>
@@ -10228,7 +10231,10 @@
       </c>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" hidden="1" spans="2:5">
+    <row r="54" hidden="1" spans="1:5">
+      <c r="A54" s="6">
+        <v>0</v>
+      </c>
       <c r="B54" s="6" t="s">
         <v>160</v>
       </c>
@@ -10240,7 +10246,10 @@
       </c>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" hidden="1" spans="2:5">
+    <row r="55" hidden="1" spans="1:5">
+      <c r="A55" s="6">
+        <v>0</v>
+      </c>
       <c r="B55" s="6" t="s">
         <v>163</v>
       </c>
@@ -10252,7 +10261,10 @@
       </c>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" hidden="1" spans="2:5">
+    <row r="56" hidden="1" spans="1:5">
+      <c r="A56" s="6">
+        <v>0</v>
+      </c>
       <c r="B56" s="6" t="s">
         <v>166</v>
       </c>
@@ -10264,7 +10276,10 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" hidden="1" spans="2:6">
+    <row r="57" hidden="1" spans="1:6">
+      <c r="A57" s="6">
+        <v>0</v>
+      </c>
       <c r="B57" s="6" t="s">
         <v>169</v>
       </c>
@@ -10279,7 +10294,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="2:5">
+    <row r="58" spans="1:5">
+      <c r="A58" s="6">
+        <v>1</v>
+      </c>
       <c r="B58" s="6" t="s">
         <v>172</v>
       </c>
@@ -10291,7 +10309,10 @@
       </c>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" hidden="1" spans="2:5">
+    <row r="59" hidden="1" spans="1:5">
+      <c r="A59" s="6">
+        <v>0</v>
+      </c>
       <c r="B59" s="6" t="s">
         <v>175</v>
       </c>
@@ -10303,7 +10324,10 @@
       </c>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" hidden="1" spans="2:5">
+    <row r="60" hidden="1" spans="1:5">
+      <c r="A60" s="6">
+        <v>0</v>
+      </c>
       <c r="B60" s="6" t="s">
         <v>178</v>
       </c>
@@ -10315,7 +10339,10 @@
       </c>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" hidden="1" spans="2:5">
+    <row r="61" hidden="1" spans="1:5">
+      <c r="A61" s="6">
+        <v>0</v>
+      </c>
       <c r="B61" s="6" t="s">
         <v>181</v>
       </c>
@@ -10327,7 +10354,10 @@
       </c>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" hidden="1" spans="2:5">
+    <row r="62" spans="1:5">
+      <c r="A62" s="6">
+        <v>1</v>
+      </c>
       <c r="B62" s="6" t="s">
         <v>184</v>
       </c>
@@ -10339,7 +10369,10 @@
       </c>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" hidden="1" spans="2:5">
+    <row r="63" spans="1:5">
+      <c r="A63" s="6">
+        <v>1</v>
+      </c>
       <c r="B63" s="6" t="s">
         <v>187</v>
       </c>
@@ -10351,7 +10384,10 @@
       </c>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" hidden="1" spans="2:5">
+    <row r="64" spans="1:5">
+      <c r="A64" s="6">
+        <v>1</v>
+      </c>
       <c r="B64" s="6" t="s">
         <v>190</v>
       </c>
@@ -10363,7 +10399,10 @@
       </c>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" hidden="1" spans="2:5">
+    <row r="65" hidden="1" spans="1:5">
+      <c r="A65" s="6">
+        <v>0</v>
+      </c>
       <c r="B65" s="6" t="s">
         <v>193</v>
       </c>
@@ -10375,7 +10414,10 @@
       </c>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" hidden="1" spans="2:5">
+    <row r="66" spans="1:5">
+      <c r="A66" s="6">
+        <v>1</v>
+      </c>
       <c r="B66" s="6" t="s">
         <v>196</v>
       </c>
@@ -10387,7 +10429,10 @@
       </c>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" hidden="1" spans="2:5">
+    <row r="67" hidden="1" spans="1:5">
+      <c r="A67" s="6">
+        <v>0</v>
+      </c>
       <c r="B67" s="6" t="s">
         <v>199</v>
       </c>
@@ -10399,7 +10444,10 @@
       </c>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" hidden="1" spans="2:5">
+    <row r="68" hidden="1" spans="1:5">
+      <c r="A68" s="6">
+        <v>0</v>
+      </c>
       <c r="B68" s="6" t="s">
         <v>202</v>
       </c>
@@ -10411,7 +10459,10 @@
       </c>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" hidden="1" spans="2:5">
+    <row r="69" hidden="1" spans="1:5">
+      <c r="A69" s="6">
+        <v>0</v>
+      </c>
       <c r="B69" s="6" t="s">
         <v>205</v>
       </c>
@@ -10423,7 +10474,10 @@
       </c>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" hidden="1" spans="2:5">
+    <row r="70" hidden="1" spans="1:5">
+      <c r="A70" s="6">
+        <v>0</v>
+      </c>
       <c r="B70" s="6" t="s">
         <v>208</v>
       </c>
@@ -10435,7 +10489,10 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" hidden="1" spans="2:5">
+    <row r="71" hidden="1" spans="1:5">
+      <c r="A71" s="6">
+        <v>0</v>
+      </c>
       <c r="B71" s="6" t="s">
         <v>211</v>
       </c>
@@ -10447,7 +10504,10 @@
       </c>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" hidden="1" spans="2:5">
+    <row r="72" hidden="1" spans="1:5">
+      <c r="A72" s="6">
+        <v>0</v>
+      </c>
       <c r="B72" s="6" t="s">
         <v>214</v>
       </c>
@@ -10459,7 +10519,10 @@
       </c>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" hidden="1" spans="2:5">
+    <row r="73" spans="1:5">
+      <c r="A73" s="6">
+        <v>1</v>
+      </c>
       <c r="B73" s="6" t="s">
         <v>216</v>
       </c>
@@ -10471,7 +10534,10 @@
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" hidden="1" spans="2:5">
+    <row r="74" spans="1:5">
+      <c r="A74" s="6">
+        <v>1</v>
+      </c>
       <c r="B74" s="6" t="s">
         <v>219</v>
       </c>
@@ -10483,7 +10549,10 @@
       </c>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" hidden="1" spans="2:5">
+    <row r="75" hidden="1" spans="1:5">
+      <c r="A75" s="6">
+        <v>0</v>
+      </c>
       <c r="B75" s="6" t="s">
         <v>222</v>
       </c>
@@ -10495,7 +10564,10 @@
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" hidden="1" spans="2:5">
+    <row r="76" hidden="1" spans="1:5">
+      <c r="A76" s="6">
+        <v>0</v>
+      </c>
       <c r="B76" s="6" t="s">
         <v>225</v>
       </c>
@@ -10507,7 +10579,10 @@
       </c>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" hidden="1" spans="2:5">
+    <row r="77" spans="1:5">
+      <c r="A77" s="6">
+        <v>1</v>
+      </c>
       <c r="B77" s="6" t="s">
         <v>228</v>
       </c>
@@ -35476,7 +35551,7 @@
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="equal" val="1"/>
-        <customFilter operator="equal" val="3"/>
+        <customFilter operator="equal" val="2"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/Level 5.xlsx
+++ b/Level 5.xlsx
@@ -8363,10 +8363,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -8408,7 +8408,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8422,8 +8460,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8444,61 +8490,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -8515,7 +8507,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -8523,17 +8530,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8544,10 +8543,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8603,7 +8603,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8621,7 +8675,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8633,67 +8765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8705,85 +8783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8816,7 +8816,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8836,11 +8845,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8859,204 +8909,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9423,13 +9423,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F6389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8296296296296" style="6"/>
+    <col min="1" max="1" width="15.5481481481481" style="6" customWidth="1"/>
     <col min="2" max="2" width="24.162962962963" style="6" customWidth="1"/>
     <col min="3" max="3" width="27.6666666666667" style="6" customWidth="1"/>
     <col min="4" max="4" width="43.5037037037037" style="6" customWidth="1"/>
@@ -9558,7 +9558,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>25</v>
@@ -9588,7 +9588,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>31</v>
@@ -9841,9 +9841,9 @@
       </c>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" hidden="1" spans="1:5">
       <c r="A28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>82</v>
@@ -9856,9 +9856,9 @@
       </c>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" hidden="1" spans="1:5">
       <c r="A29" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>85</v>
@@ -9871,9 +9871,9 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" hidden="1" spans="1:5">
       <c r="A30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>88</v>
@@ -9916,9 +9916,9 @@
       </c>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" hidden="1" spans="1:5">
       <c r="A33" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>97</v>
@@ -9931,9 +9931,9 @@
       </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" hidden="1" spans="1:5">
       <c r="A34" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>100</v>
@@ -9946,9 +9946,9 @@
       </c>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" hidden="1" spans="1:5">
       <c r="A35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>103</v>
@@ -9991,9 +9991,9 @@
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" hidden="1" spans="1:5">
       <c r="A38" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>112</v>
@@ -10036,9 +10036,9 @@
       </c>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" hidden="1" spans="1:5">
       <c r="A41" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>121</v>
@@ -10066,9 +10066,9 @@
       </c>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" hidden="1" spans="1:5">
       <c r="A43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>127</v>
@@ -10081,9 +10081,9 @@
       </c>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" hidden="1" spans="1:5">
       <c r="A44" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>130</v>
@@ -10126,9 +10126,9 @@
       </c>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" hidden="1" spans="1:5">
       <c r="A47" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>139</v>
@@ -10141,9 +10141,9 @@
       </c>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" hidden="1" spans="1:5">
       <c r="A48" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>142</v>
@@ -10156,9 +10156,9 @@
       </c>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" hidden="1" spans="1:5">
+    <row r="49" spans="1:5">
       <c r="A49" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>145</v>
@@ -10173,7 +10173,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>148</v>
@@ -10201,9 +10201,9 @@
       </c>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" hidden="1" spans="1:5">
       <c r="A52" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>154</v>
@@ -10216,9 +10216,9 @@
       </c>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" hidden="1" spans="1:5">
+    <row r="53" spans="1:5">
       <c r="A53" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>157</v>
@@ -10231,9 +10231,9 @@
       </c>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" hidden="1" spans="1:5">
+    <row r="54" spans="1:5">
       <c r="A54" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>160</v>
@@ -10246,9 +10246,9 @@
       </c>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" hidden="1" spans="1:5">
+    <row r="55" spans="1:5">
       <c r="A55" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>163</v>
@@ -10276,9 +10276,9 @@
       </c>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" hidden="1" spans="1:6">
+    <row r="57" spans="1:6">
       <c r="A57" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>169</v>
@@ -10296,7 +10296,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>172</v>
@@ -10309,9 +10309,9 @@
       </c>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" hidden="1" spans="1:5">
+    <row r="59" spans="1:5">
       <c r="A59" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>175</v>
@@ -10324,9 +10324,9 @@
       </c>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" hidden="1" spans="1:5">
+    <row r="60" spans="1:5">
       <c r="A60" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>178</v>
@@ -10339,9 +10339,9 @@
       </c>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" hidden="1" spans="1:5">
+    <row r="61" spans="1:5">
       <c r="A61" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>181</v>
@@ -10356,7 +10356,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>184</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>187</v>
@@ -10386,7 +10386,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>190</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>196</v>
@@ -10474,9 +10474,9 @@
       </c>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" hidden="1" spans="1:5">
+    <row r="70" spans="1:5">
       <c r="A70" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>208</v>
@@ -10521,7 +10521,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>216</v>
@@ -10534,9 +10534,9 @@
       </c>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" hidden="1" spans="1:5">
       <c r="A74" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>219</v>
@@ -10564,9 +10564,9 @@
       </c>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" hidden="1" spans="1:5">
+    <row r="76" spans="1:5">
       <c r="A76" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>225</v>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>228</v>
@@ -35549,10 +35549,11 @@
   </sheetData>
   <autoFilter ref="A1:A6389">
     <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-        <customFilter operator="equal" val="2"/>
-      </customFilters>
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A1:E6388">
